--- a/Code/Results/Cases/Case_5_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009576361163435</v>
+        <v>1.041718129476463</v>
       </c>
       <c r="D2">
-        <v>1.023776810340042</v>
+        <v>1.042656494379526</v>
       </c>
       <c r="E2">
-        <v>1.014442092968019</v>
+        <v>1.039923658474875</v>
       </c>
       <c r="F2">
-        <v>1.013843585235872</v>
+        <v>1.049810263742105</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044721789260296</v>
+        <v>1.040884733319624</v>
       </c>
       <c r="J2">
-        <v>1.031474369515526</v>
+        <v>1.04679782858849</v>
       </c>
       <c r="K2">
-        <v>1.034914543971466</v>
+        <v>1.045432565200146</v>
       </c>
       <c r="L2">
-        <v>1.025703827323236</v>
+        <v>1.042707466958247</v>
       </c>
       <c r="M2">
-        <v>1.025113367962346</v>
+        <v>1.052566286466878</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015226434322981</v>
+        <v>1.042869221613039</v>
       </c>
       <c r="D3">
-        <v>1.027929454555252</v>
+        <v>1.043516771764117</v>
       </c>
       <c r="E3">
-        <v>1.01906503596393</v>
+        <v>1.04090982030112</v>
       </c>
       <c r="F3">
-        <v>1.020130850073531</v>
+        <v>1.051165926162507</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046706035513087</v>
+        <v>1.041227476843246</v>
       </c>
       <c r="J3">
-        <v>1.035310445740418</v>
+        <v>1.047594060588326</v>
       </c>
       <c r="K3">
-        <v>1.03821702197565</v>
+        <v>1.046103589213633</v>
       </c>
       <c r="L3">
-        <v>1.029459651874105</v>
+        <v>1.043503483737747</v>
       </c>
       <c r="M3">
-        <v>1.030512472731656</v>
+        <v>1.05373286805462</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018792956052264</v>
+        <v>1.04361378452914</v>
       </c>
       <c r="D4">
-        <v>1.030553698072853</v>
+        <v>1.044073158814578</v>
       </c>
       <c r="E4">
-        <v>1.021988886854885</v>
+        <v>1.041547988768881</v>
       </c>
       <c r="F4">
-        <v>1.024102776005545</v>
+        <v>1.052043211000082</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047948848839369</v>
+        <v>1.041447928910683</v>
       </c>
       <c r="J4">
-        <v>1.037727853682367</v>
+        <v>1.048108469608141</v>
       </c>
       <c r="K4">
-        <v>1.040296838237372</v>
+        <v>1.046536877311261</v>
       </c>
       <c r="L4">
-        <v>1.031828975717382</v>
+        <v>1.044018003664952</v>
       </c>
       <c r="M4">
-        <v>1.033918750993021</v>
+        <v>1.054487269802907</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020271851428885</v>
+        <v>1.043926735579289</v>
       </c>
       <c r="D5">
-        <v>1.031642507465629</v>
+        <v>1.044306999761362</v>
       </c>
       <c r="E5">
-        <v>1.023202597949586</v>
+        <v>1.041816288834823</v>
       </c>
       <c r="F5">
-        <v>1.025750576822753</v>
+        <v>1.052412043395756</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048461824677984</v>
+        <v>1.041540289945504</v>
       </c>
       <c r="J5">
-        <v>1.038729243751893</v>
+        <v>1.048324534994145</v>
       </c>
       <c r="K5">
-        <v>1.041158050895824</v>
+        <v>1.046718814549537</v>
       </c>
       <c r="L5">
-        <v>1.03281103843422</v>
+        <v>1.044234175411174</v>
       </c>
       <c r="M5">
-        <v>1.035330774000248</v>
+        <v>1.05480431363944</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020518990426878</v>
+        <v>1.043979277778069</v>
       </c>
       <c r="D6">
-        <v>1.031824494653654</v>
+        <v>1.044346258935549</v>
       </c>
       <c r="E6">
-        <v>1.023405496978631</v>
+        <v>1.041861338439574</v>
       </c>
       <c r="F6">
-        <v>1.026025989758869</v>
+        <v>1.052473973333473</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04854740788727</v>
+        <v>1.041555779191745</v>
       </c>
       <c r="J6">
-        <v>1.038896525863958</v>
+        <v>1.048360802079758</v>
       </c>
       <c r="K6">
-        <v>1.04130189640642</v>
+        <v>1.046749349900622</v>
       </c>
       <c r="L6">
-        <v>1.032975126506608</v>
+        <v>1.044270463853462</v>
       </c>
       <c r="M6">
-        <v>1.035566713210534</v>
+        <v>1.054857540502967</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01881279635351</v>
+        <v>1.043617966442716</v>
       </c>
       <c r="D7">
-        <v>1.030568302687782</v>
+        <v>1.044076283660331</v>
       </c>
       <c r="E7">
-        <v>1.022005164456915</v>
+        <v>1.041551573751471</v>
       </c>
       <c r="F7">
-        <v>1.024124879068259</v>
+        <v>1.052048139267551</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047955740149519</v>
+        <v>1.041449164288486</v>
       </c>
       <c r="J7">
-        <v>1.037741292011122</v>
+        <v>1.048111357438398</v>
       </c>
       <c r="K7">
-        <v>1.040308396766115</v>
+        <v>1.046539309217749</v>
       </c>
       <c r="L7">
-        <v>1.031842152349033</v>
+        <v>1.044020892681879</v>
       </c>
       <c r="M7">
-        <v>1.033937695828345</v>
+        <v>1.054491506574561</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011504940465769</v>
+        <v>1.042107203459481</v>
       </c>
       <c r="D8">
-        <v>1.025193598084864</v>
+        <v>1.042947285318417</v>
       </c>
       <c r="E8">
-        <v>1.016018840966501</v>
+        <v>1.040256925331786</v>
       </c>
       <c r="F8">
-        <v>1.015989014130502</v>
+        <v>1.05026840105257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045401103744925</v>
+        <v>1.041000839884692</v>
       </c>
       <c r="J8">
-        <v>1.032784592370782</v>
+        <v>1.047067086400659</v>
       </c>
       <c r="K8">
-        <v>1.036042786257821</v>
+        <v>1.04565952955525</v>
       </c>
       <c r="L8">
-        <v>1.02698611211674</v>
+        <v>1.04297660014253</v>
       </c>
       <c r="M8">
-        <v>1.02695667351921</v>
+        <v>1.052960633593913</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9978965890635558</v>
+        <v>1.039442901178528</v>
       </c>
       <c r="D9">
-        <v>1.015212176933052</v>
+        <v>1.040955757544343</v>
       </c>
       <c r="E9">
-        <v>1.004920045636927</v>
+        <v>1.037975986035269</v>
       </c>
       <c r="F9">
-        <v>1.00086256948248</v>
+        <v>1.047132777763805</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04056788652431</v>
+        <v>1.040200661456432</v>
       </c>
       <c r="J9">
-        <v>1.023523843468738</v>
+        <v>1.045220732527836</v>
       </c>
       <c r="K9">
-        <v>1.028063176029632</v>
+        <v>1.044102253303261</v>
       </c>
       <c r="L9">
-        <v>1.017933799715572</v>
+        <v>1.041132131337512</v>
       </c>
       <c r="M9">
-        <v>1.01394166758319</v>
+        <v>1.050259461606173</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9882628852117252</v>
+        <v>1.037665154636978</v>
       </c>
       <c r="D10">
-        <v>1.008169663367747</v>
+        <v>1.039626636074162</v>
       </c>
       <c r="E10">
-        <v>0.9971005375355494</v>
+        <v>1.036455580531095</v>
       </c>
       <c r="F10">
-        <v>0.990167533384088</v>
+        <v>1.045042538237021</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037097401409459</v>
+        <v>1.039660341656541</v>
       </c>
       <c r="J10">
-        <v>1.016950044435808</v>
+        <v>1.043985594087993</v>
       </c>
       <c r="K10">
-        <v>1.022392962244902</v>
+        <v>1.043059326951387</v>
       </c>
       <c r="L10">
-        <v>1.011522340755774</v>
+        <v>1.039899552159257</v>
       </c>
       <c r="M10">
-        <v>1.004716614749405</v>
+        <v>1.048456136972073</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9839406414840088</v>
+        <v>1.036894980635276</v>
       </c>
       <c r="D11">
-        <v>1.005016844556694</v>
+        <v>1.03905076312287</v>
       </c>
       <c r="E11">
-        <v>0.9936023011775824</v>
+        <v>1.035797269413577</v>
       </c>
       <c r="F11">
-        <v>0.985371576903767</v>
+        <v>1.04413744648245</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035529379499922</v>
+        <v>1.039424741811674</v>
       </c>
       <c r="J11">
-        <v>1.013997113166111</v>
+        <v>1.043449747347723</v>
       </c>
       <c r="K11">
-        <v>1.019844766666619</v>
+        <v>1.042606593715037</v>
       </c>
       <c r="L11">
-        <v>1.008645885741552</v>
+        <v>1.039365124687687</v>
       </c>
       <c r="M11">
-        <v>1.000574739106499</v>
+        <v>1.047674643014217</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9823108450682103</v>
+        <v>1.036608841783191</v>
       </c>
       <c r="D12">
-        <v>1.003829153229739</v>
+        <v>1.038836804204968</v>
       </c>
       <c r="E12">
-        <v>0.9922848290778994</v>
+        <v>1.035552747481125</v>
       </c>
       <c r="F12">
-        <v>0.9835634588275085</v>
+        <v>1.043801251217015</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034936535633087</v>
+        <v>1.039336982850148</v>
       </c>
       <c r="J12">
-        <v>1.012883178475864</v>
+        <v>1.043250554964335</v>
       </c>
       <c r="K12">
-        <v>1.018883358569581</v>
+        <v>1.042438256338507</v>
       </c>
       <c r="L12">
-        <v>1.007561347457322</v>
+        <v>1.03916650640765</v>
       </c>
       <c r="M12">
-        <v>0.9990124803730094</v>
+        <v>1.047384262052372</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9826615711712949</v>
+        <v>1.036670222375399</v>
       </c>
       <c r="D13">
-        <v>1.004084686173693</v>
+        <v>1.038882701578389</v>
       </c>
       <c r="E13">
-        <v>0.9925682695005158</v>
+        <v>1.035605198095895</v>
       </c>
       <c r="F13">
-        <v>0.9839525466132722</v>
+        <v>1.043873366470929</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035064184086947</v>
+        <v>1.039355818618587</v>
       </c>
       <c r="J13">
-        <v>1.013122913089569</v>
+        <v>1.043293289443071</v>
       </c>
       <c r="K13">
-        <v>1.019090273793207</v>
+        <v>1.042474373079927</v>
       </c>
       <c r="L13">
-        <v>1.007794730605476</v>
+        <v>1.039209115612888</v>
       </c>
       <c r="M13">
-        <v>0.9993486944934791</v>
+        <v>1.047446554293137</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838064284084748</v>
+        <v>1.036871329584357</v>
       </c>
       <c r="D14">
-        <v>1.004919014650632</v>
+        <v>1.039033078319436</v>
       </c>
       <c r="E14">
-        <v>0.9934937744802728</v>
+        <v>1.035777057076276</v>
       </c>
       <c r="F14">
-        <v>0.9852226733953695</v>
+        <v>1.044109656575083</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035480590911343</v>
+        <v>1.039417492664552</v>
       </c>
       <c r="J14">
-        <v>1.013905390199183</v>
+        <v>1.043433285213325</v>
       </c>
       <c r="K14">
-        <v>1.019765605913642</v>
+        <v>1.042592682411087</v>
       </c>
       <c r="L14">
-        <v>1.008556572125233</v>
+        <v>1.039348709050547</v>
       </c>
       <c r="M14">
-        <v>1.000446097523052</v>
+        <v>1.047650642075333</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9845085370721279</v>
+        <v>1.036995230102035</v>
       </c>
       <c r="D15">
-        <v>1.005430839531009</v>
+        <v>1.039125723205021</v>
       </c>
       <c r="E15">
-        <v>0.9940615763806244</v>
+        <v>1.035882945581481</v>
       </c>
       <c r="F15">
-        <v>0.9860016439722906</v>
+        <v>1.044255242094187</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035735754349856</v>
+        <v>1.039455459372294</v>
       </c>
       <c r="J15">
-        <v>1.014385201787276</v>
+        <v>1.043519520645198</v>
       </c>
       <c r="K15">
-        <v>1.020179697309153</v>
+        <v>1.04266555386244</v>
       </c>
       <c r="L15">
-        <v>1.009023802525655</v>
+        <v>1.039434702815437</v>
       </c>
       <c r="M15">
-        <v>1.001119040584326</v>
+        <v>1.04777637405083</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9885464226165825</v>
+        <v>1.037716259980787</v>
       </c>
       <c r="D16">
-        <v>1.008376639184409</v>
+        <v>1.039664847327306</v>
       </c>
       <c r="E16">
-        <v>0.9973302377700484</v>
+        <v>1.036499271108785</v>
       </c>
       <c r="F16">
-        <v>0.9904821917440382</v>
+        <v>1.045102605829156</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037200040312344</v>
+        <v>1.039675943082119</v>
       </c>
       <c r="J16">
-        <v>1.017143687306643</v>
+        <v>1.044021134797382</v>
       </c>
       <c r="K16">
-        <v>1.022560041803634</v>
+        <v>1.043089349282877</v>
       </c>
       <c r="L16">
-        <v>1.01171104345378</v>
+        <v>1.03993500524666</v>
       </c>
       <c r="M16">
-        <v>1.004988256075079</v>
+        <v>1.048507988378315</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9910377834562415</v>
+        <v>1.038168434906374</v>
       </c>
       <c r="D17">
-        <v>1.010196067119754</v>
+        <v>1.040002930157532</v>
       </c>
       <c r="E17">
-        <v>0.999349698477249</v>
+        <v>1.03688588432261</v>
       </c>
       <c r="F17">
-        <v>0.9932472751628678</v>
+        <v>1.045634131284459</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038100662989861</v>
+        <v>1.039813807758907</v>
       </c>
       <c r="J17">
-        <v>1.018844777011578</v>
+        <v>1.044335509160019</v>
       </c>
       <c r="K17">
-        <v>1.024027653340528</v>
+        <v>1.043354879286512</v>
       </c>
       <c r="L17">
-        <v>1.013369139450258</v>
+        <v>1.040248640220612</v>
       </c>
       <c r="M17">
-        <v>1.007374749197917</v>
+        <v>1.048966736741853</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.992476524334435</v>
+        <v>1.038432142631036</v>
       </c>
       <c r="D18">
-        <v>1.011247412550146</v>
+        <v>1.040200093993695</v>
       </c>
       <c r="E18">
-        <v>1.000516863150489</v>
+        <v>1.037111392669023</v>
       </c>
       <c r="F18">
-        <v>0.9948443260683741</v>
+        <v>1.045944160898591</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038619726172721</v>
+        <v>1.039894063910019</v>
       </c>
       <c r="J18">
-        <v>1.019826803864248</v>
+        <v>1.044518779724437</v>
       </c>
       <c r="K18">
-        <v>1.024874784729186</v>
+        <v>1.043509648587752</v>
       </c>
       <c r="L18">
-        <v>1.014326680823498</v>
+        <v>1.040431509515494</v>
       </c>
       <c r="M18">
-        <v>1.00875265057871</v>
+        <v>1.049234255096799</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9929646986691889</v>
+        <v>1.038522053725856</v>
       </c>
       <c r="D19">
-        <v>1.011604246345393</v>
+        <v>1.040267315996692</v>
       </c>
       <c r="E19">
-        <v>1.0009130467603</v>
+        <v>1.037188285796155</v>
       </c>
       <c r="F19">
-        <v>0.9953862582265227</v>
+        <v>1.046049873051462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038795669777741</v>
+        <v>1.039921402406051</v>
       </c>
       <c r="J19">
-        <v>1.020159952787931</v>
+        <v>1.044581253550586</v>
       </c>
       <c r="K19">
-        <v>1.025162151573098</v>
+        <v>1.043562402314555</v>
       </c>
       <c r="L19">
-        <v>1.014651579500772</v>
+        <v>1.040493851602539</v>
       </c>
       <c r="M19">
-        <v>1.009220135044898</v>
+        <v>1.049325461544058</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9907719878904866</v>
+        <v>1.03811992478869</v>
       </c>
       <c r="D20">
-        <v>1.010001890698019</v>
+        <v>1.039966660608168</v>
       </c>
       <c r="E20">
-        <v>0.9991341499163192</v>
+        <v>1.036844404039401</v>
       </c>
       <c r="F20">
-        <v>0.9929522527894753</v>
+        <v>1.045577103676292</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038004685838867</v>
+        <v>1.039799032529106</v>
       </c>
       <c r="J20">
-        <v>1.018663327758571</v>
+        <v>1.044301789982169</v>
       </c>
       <c r="K20">
-        <v>1.023871119679685</v>
+        <v>1.043326401799737</v>
       </c>
       <c r="L20">
-        <v>1.013192241359421</v>
+        <v>1.040214997267453</v>
       </c>
       <c r="M20">
-        <v>1.007120170816975</v>
+        <v>1.048917523796446</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9834699821339469</v>
+        <v>1.036812110250714</v>
       </c>
       <c r="D21">
-        <v>1.004673792845512</v>
+        <v>1.038988797616026</v>
       </c>
       <c r="E21">
-        <v>0.9932217453486231</v>
+        <v>1.03572644878458</v>
       </c>
       <c r="F21">
-        <v>0.9848494056590128</v>
+        <v>1.044040075162271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035358262004121</v>
+        <v>1.039399338010071</v>
       </c>
       <c r="J21">
-        <v>1.013675451128847</v>
+        <v>1.043392064238399</v>
       </c>
       <c r="K21">
-        <v>1.019567156517855</v>
+        <v>1.042557848020035</v>
       </c>
       <c r="L21">
-        <v>1.008332681878609</v>
+        <v>1.039307605255726</v>
       </c>
       <c r="M21">
-        <v>1.00012361017655</v>
+        <v>1.047590546074048</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9787372479461334</v>
+        <v>1.035989475939893</v>
       </c>
       <c r="D22">
-        <v>1.001227194549558</v>
+        <v>1.038373663153638</v>
       </c>
       <c r="E22">
-        <v>0.9893991495111476</v>
+        <v>1.035023569300582</v>
       </c>
       <c r="F22">
-        <v>0.9795993366568984</v>
+        <v>1.043073660218562</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03363377442995</v>
+        <v>1.039146606623775</v>
       </c>
       <c r="J22">
-        <v>1.010439907474732</v>
+        <v>1.042819185886845</v>
       </c>
       <c r="K22">
-        <v>1.0167743796141</v>
+        <v>1.042073631602187</v>
       </c>
       <c r="L22">
-        <v>1.005183577616364</v>
+        <v>1.038736465792379</v>
       </c>
       <c r="M22">
-        <v>0.9955860649123359</v>
+        <v>1.04675564655407</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9812601900654475</v>
+        <v>1.036425604735591</v>
       </c>
       <c r="D23">
-        <v>1.003063841919307</v>
+        <v>1.038699787523238</v>
       </c>
       <c r="E23">
-        <v>0.9914359839212981</v>
+        <v>1.035396177154048</v>
       </c>
       <c r="F23">
-        <v>0.9823979240208925</v>
+        <v>1.043585978438556</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034553916893074</v>
+        <v>1.039280719841309</v>
       </c>
       <c r="J23">
-        <v>1.01216495256745</v>
+        <v>1.043122965049096</v>
       </c>
       <c r="K23">
-        <v>1.018263436391979</v>
+        <v>1.042330418624533</v>
       </c>
       <c r="L23">
-        <v>1.006862231347803</v>
+        <v>1.039039297332617</v>
       </c>
       <c r="M23">
-        <v>0.9980052265483736</v>
+        <v>1.047198298111682</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9908921339283425</v>
+        <v>1.038141844540425</v>
       </c>
       <c r="D24">
-        <v>1.010089661168261</v>
+        <v>1.03998304936158</v>
       </c>
       <c r="E24">
-        <v>0.9992315801735887</v>
+        <v>1.036863147183038</v>
       </c>
       <c r="F24">
-        <v>0.9930856093109014</v>
+        <v>1.045602871997485</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038048073066649</v>
+        <v>1.039805709307401</v>
       </c>
       <c r="J24">
-        <v>1.018745348274923</v>
+        <v>1.044317026531753</v>
       </c>
       <c r="K24">
-        <v>1.023941877943073</v>
+        <v>1.043339269889353</v>
       </c>
       <c r="L24">
-        <v>1.01327220357653</v>
+        <v>1.040230199281714</v>
       </c>
       <c r="M24">
-        <v>1.007235247279988</v>
+        <v>1.048939761198386</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00150813340143</v>
+        <v>1.040131951944616</v>
       </c>
       <c r="D25">
-        <v>1.017857511551897</v>
+        <v>1.041470865989526</v>
       </c>
       <c r="E25">
-        <v>1.007859475281225</v>
+        <v>1.038565621229036</v>
       </c>
       <c r="F25">
-        <v>1.00487450047376</v>
+        <v>1.047943368628282</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041859166942763</v>
+        <v>1.040408735193859</v>
       </c>
       <c r="J25">
-        <v>1.025984849219774</v>
+        <v>1.045698801643552</v>
       </c>
       <c r="K25">
-        <v>1.030184796075455</v>
+        <v>1.044505679357243</v>
       </c>
       <c r="L25">
-        <v>1.020336996007845</v>
+        <v>1.041609484241802</v>
       </c>
       <c r="M25">
-        <v>1.017397614461014</v>
+        <v>1.050958217493168</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041718129476463</v>
+        <v>1.009576361163433</v>
       </c>
       <c r="D2">
-        <v>1.042656494379526</v>
+        <v>1.02377681034004</v>
       </c>
       <c r="E2">
-        <v>1.039923658474875</v>
+        <v>1.014442092968017</v>
       </c>
       <c r="F2">
-        <v>1.049810263742105</v>
+        <v>1.01384358523587</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040884733319624</v>
+        <v>1.044721789260295</v>
       </c>
       <c r="J2">
-        <v>1.04679782858849</v>
+        <v>1.031474369515524</v>
       </c>
       <c r="K2">
-        <v>1.045432565200146</v>
+        <v>1.034914543971465</v>
       </c>
       <c r="L2">
-        <v>1.042707466958247</v>
+        <v>1.025703827323234</v>
       </c>
       <c r="M2">
-        <v>1.052566286466878</v>
+        <v>1.025113367962344</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042869221613039</v>
+        <v>1.015226434322981</v>
       </c>
       <c r="D3">
-        <v>1.043516771764117</v>
+        <v>1.027929454555253</v>
       </c>
       <c r="E3">
-        <v>1.04090982030112</v>
+        <v>1.01906503596393</v>
       </c>
       <c r="F3">
-        <v>1.051165926162507</v>
+        <v>1.020130850073532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041227476843246</v>
+        <v>1.046706035513088</v>
       </c>
       <c r="J3">
-        <v>1.047594060588326</v>
+        <v>1.035310445740419</v>
       </c>
       <c r="K3">
-        <v>1.046103589213633</v>
+        <v>1.038217021975651</v>
       </c>
       <c r="L3">
-        <v>1.043503483737747</v>
+        <v>1.029459651874105</v>
       </c>
       <c r="M3">
-        <v>1.05373286805462</v>
+        <v>1.030512472731656</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04361378452914</v>
+        <v>1.018792956052263</v>
       </c>
       <c r="D4">
-        <v>1.044073158814578</v>
+        <v>1.030553698072852</v>
       </c>
       <c r="E4">
-        <v>1.041547988768881</v>
+        <v>1.021988886854883</v>
       </c>
       <c r="F4">
-        <v>1.052043211000082</v>
+        <v>1.024102776005543</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041447928910683</v>
+        <v>1.047948848839368</v>
       </c>
       <c r="J4">
-        <v>1.048108469608141</v>
+        <v>1.037727853682366</v>
       </c>
       <c r="K4">
-        <v>1.046536877311261</v>
+        <v>1.040296838237371</v>
       </c>
       <c r="L4">
-        <v>1.044018003664952</v>
+        <v>1.031828975717381</v>
       </c>
       <c r="M4">
-        <v>1.054487269802907</v>
+        <v>1.033918750993021</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043926735579289</v>
+        <v>1.020271851428886</v>
       </c>
       <c r="D5">
-        <v>1.044306999761362</v>
+        <v>1.03164250746563</v>
       </c>
       <c r="E5">
-        <v>1.041816288834823</v>
+        <v>1.023202597949586</v>
       </c>
       <c r="F5">
-        <v>1.052412043395756</v>
+        <v>1.025750576822754</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041540289945504</v>
+        <v>1.048461824677984</v>
       </c>
       <c r="J5">
-        <v>1.048324534994145</v>
+        <v>1.038729243751894</v>
       </c>
       <c r="K5">
-        <v>1.046718814549537</v>
+        <v>1.041158050895825</v>
       </c>
       <c r="L5">
-        <v>1.044234175411174</v>
+        <v>1.03281103843422</v>
       </c>
       <c r="M5">
-        <v>1.05480431363944</v>
+        <v>1.035330774000248</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043979277778069</v>
+        <v>1.020518990426876</v>
       </c>
       <c r="D6">
-        <v>1.044346258935549</v>
+        <v>1.031824494653653</v>
       </c>
       <c r="E6">
-        <v>1.041861338439574</v>
+        <v>1.023405496978629</v>
       </c>
       <c r="F6">
-        <v>1.052473973333473</v>
+        <v>1.026025989758868</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041555779191745</v>
+        <v>1.048547407887269</v>
       </c>
       <c r="J6">
-        <v>1.048360802079758</v>
+        <v>1.038896525863957</v>
       </c>
       <c r="K6">
-        <v>1.046749349900622</v>
+        <v>1.041301896406419</v>
       </c>
       <c r="L6">
-        <v>1.044270463853462</v>
+        <v>1.032975126506606</v>
       </c>
       <c r="M6">
-        <v>1.054857540502967</v>
+        <v>1.035566713210533</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043617966442716</v>
+        <v>1.018812796353509</v>
       </c>
       <c r="D7">
-        <v>1.044076283660331</v>
+        <v>1.030568302687782</v>
       </c>
       <c r="E7">
-        <v>1.041551573751471</v>
+        <v>1.022005164456914</v>
       </c>
       <c r="F7">
-        <v>1.052048139267551</v>
+        <v>1.024124879068259</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041449164288486</v>
+        <v>1.047955740149519</v>
       </c>
       <c r="J7">
-        <v>1.048111357438398</v>
+        <v>1.037741292011121</v>
       </c>
       <c r="K7">
-        <v>1.046539309217749</v>
+        <v>1.040308396766115</v>
       </c>
       <c r="L7">
-        <v>1.044020892681879</v>
+        <v>1.031842152349033</v>
       </c>
       <c r="M7">
-        <v>1.054491506574561</v>
+        <v>1.033937695828344</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042107203459481</v>
+        <v>1.01150494046577</v>
       </c>
       <c r="D8">
-        <v>1.042947285318417</v>
+        <v>1.025193598084865</v>
       </c>
       <c r="E8">
-        <v>1.040256925331786</v>
+        <v>1.016018840966502</v>
       </c>
       <c r="F8">
-        <v>1.05026840105257</v>
+        <v>1.015989014130503</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041000839884692</v>
+        <v>1.045401103744925</v>
       </c>
       <c r="J8">
-        <v>1.047067086400659</v>
+        <v>1.032784592370783</v>
       </c>
       <c r="K8">
-        <v>1.04565952955525</v>
+        <v>1.036042786257822</v>
       </c>
       <c r="L8">
-        <v>1.04297660014253</v>
+        <v>1.026986112116741</v>
       </c>
       <c r="M8">
-        <v>1.052960633593913</v>
+        <v>1.026956673519211</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039442901178528</v>
+        <v>0.9978965890635544</v>
       </c>
       <c r="D9">
-        <v>1.040955757544343</v>
+        <v>1.01521217693305</v>
       </c>
       <c r="E9">
-        <v>1.037975986035269</v>
+        <v>1.004920045636926</v>
       </c>
       <c r="F9">
-        <v>1.047132777763805</v>
+        <v>1.000862569482478</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040200661456432</v>
+        <v>1.040567886524309</v>
       </c>
       <c r="J9">
-        <v>1.045220732527836</v>
+        <v>1.023523843468737</v>
       </c>
       <c r="K9">
-        <v>1.044102253303261</v>
+        <v>1.028063176029631</v>
       </c>
       <c r="L9">
-        <v>1.041132131337512</v>
+        <v>1.017933799715571</v>
       </c>
       <c r="M9">
-        <v>1.050259461606173</v>
+        <v>1.013941667583189</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037665154636978</v>
+        <v>0.9882628852117258</v>
       </c>
       <c r="D10">
-        <v>1.039626636074162</v>
+        <v>1.008169663367748</v>
       </c>
       <c r="E10">
-        <v>1.036455580531095</v>
+        <v>0.9971005375355496</v>
       </c>
       <c r="F10">
-        <v>1.045042538237021</v>
+        <v>0.9901675333840889</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039660341656541</v>
+        <v>1.037097401409459</v>
       </c>
       <c r="J10">
-        <v>1.043985594087993</v>
+        <v>1.016950044435809</v>
       </c>
       <c r="K10">
-        <v>1.043059326951387</v>
+        <v>1.022392962244902</v>
       </c>
       <c r="L10">
-        <v>1.039899552159257</v>
+        <v>1.011522340755774</v>
       </c>
       <c r="M10">
-        <v>1.048456136972073</v>
+        <v>1.004716614749406</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036894980635276</v>
+        <v>0.9839406414840109</v>
       </c>
       <c r="D11">
-        <v>1.03905076312287</v>
+        <v>1.005016844556696</v>
       </c>
       <c r="E11">
-        <v>1.035797269413577</v>
+        <v>0.9936023011775837</v>
       </c>
       <c r="F11">
-        <v>1.04413744648245</v>
+        <v>0.9853715769037684</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039424741811674</v>
+        <v>1.035529379499923</v>
       </c>
       <c r="J11">
-        <v>1.043449747347723</v>
+        <v>1.013997113166113</v>
       </c>
       <c r="K11">
-        <v>1.042606593715037</v>
+        <v>1.01984476666662</v>
       </c>
       <c r="L11">
-        <v>1.039365124687687</v>
+        <v>1.008645885741554</v>
       </c>
       <c r="M11">
-        <v>1.047674643014217</v>
+        <v>1.000574739106501</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036608841783191</v>
+        <v>0.9823108450682101</v>
       </c>
       <c r="D12">
-        <v>1.038836804204968</v>
+        <v>1.003829153229739</v>
       </c>
       <c r="E12">
-        <v>1.035552747481125</v>
+        <v>0.9922848290778991</v>
       </c>
       <c r="F12">
-        <v>1.043801251217015</v>
+        <v>0.9835634588275082</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039336982850148</v>
+        <v>1.034936535633086</v>
       </c>
       <c r="J12">
-        <v>1.043250554964335</v>
+        <v>1.012883178475864</v>
       </c>
       <c r="K12">
-        <v>1.042438256338507</v>
+        <v>1.01888335856958</v>
       </c>
       <c r="L12">
-        <v>1.03916650640765</v>
+        <v>1.007561347457322</v>
       </c>
       <c r="M12">
-        <v>1.047384262052372</v>
+        <v>0.999012480373009</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036670222375399</v>
+        <v>0.9826615711712944</v>
       </c>
       <c r="D13">
-        <v>1.038882701578389</v>
+        <v>1.004084686173692</v>
       </c>
       <c r="E13">
-        <v>1.035605198095895</v>
+        <v>0.9925682695005152</v>
       </c>
       <c r="F13">
-        <v>1.043873366470929</v>
+        <v>0.983952546613272</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039355818618587</v>
+        <v>1.035064184086946</v>
       </c>
       <c r="J13">
-        <v>1.043293289443071</v>
+        <v>1.013122913089569</v>
       </c>
       <c r="K13">
-        <v>1.042474373079927</v>
+        <v>1.019090273793207</v>
       </c>
       <c r="L13">
-        <v>1.039209115612888</v>
+        <v>1.007794730605476</v>
       </c>
       <c r="M13">
-        <v>1.047446554293137</v>
+        <v>0.9993486944934787</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036871329584357</v>
+        <v>0.983806428408476</v>
       </c>
       <c r="D14">
-        <v>1.039033078319436</v>
+        <v>1.004919014650633</v>
       </c>
       <c r="E14">
-        <v>1.035777057076276</v>
+        <v>0.9934937744802739</v>
       </c>
       <c r="F14">
-        <v>1.044109656575083</v>
+        <v>0.9852226733953705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039417492664552</v>
+        <v>1.035480590911343</v>
       </c>
       <c r="J14">
-        <v>1.043433285213325</v>
+        <v>1.013905390199183</v>
       </c>
       <c r="K14">
-        <v>1.042592682411087</v>
+        <v>1.019765605913643</v>
       </c>
       <c r="L14">
-        <v>1.039348709050547</v>
+        <v>1.008556572125234</v>
       </c>
       <c r="M14">
-        <v>1.047650642075333</v>
+        <v>1.000446097523053</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036995230102035</v>
+        <v>0.984508537072127</v>
       </c>
       <c r="D15">
-        <v>1.039125723205021</v>
+        <v>1.005430839531009</v>
       </c>
       <c r="E15">
-        <v>1.035882945581481</v>
+        <v>0.9940615763806238</v>
       </c>
       <c r="F15">
-        <v>1.044255242094187</v>
+        <v>0.9860016439722903</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039455459372294</v>
+        <v>1.035735754349855</v>
       </c>
       <c r="J15">
-        <v>1.043519520645198</v>
+        <v>1.014385201787275</v>
       </c>
       <c r="K15">
-        <v>1.04266555386244</v>
+        <v>1.020179697309153</v>
       </c>
       <c r="L15">
-        <v>1.039434702815437</v>
+        <v>1.009023802525655</v>
       </c>
       <c r="M15">
-        <v>1.04777637405083</v>
+        <v>1.001119040584326</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037716259980787</v>
+        <v>0.9885464226165827</v>
       </c>
       <c r="D16">
-        <v>1.039664847327306</v>
+        <v>1.008376639184409</v>
       </c>
       <c r="E16">
-        <v>1.036499271108785</v>
+        <v>0.9973302377700483</v>
       </c>
       <c r="F16">
-        <v>1.045102605829156</v>
+        <v>0.9904821917440382</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039675943082119</v>
+        <v>1.037200040312344</v>
       </c>
       <c r="J16">
-        <v>1.044021134797382</v>
+        <v>1.017143687306643</v>
       </c>
       <c r="K16">
-        <v>1.043089349282877</v>
+        <v>1.022560041803634</v>
       </c>
       <c r="L16">
-        <v>1.03993500524666</v>
+        <v>1.01171104345378</v>
       </c>
       <c r="M16">
-        <v>1.048507988378315</v>
+        <v>1.004988256075079</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038168434906374</v>
+        <v>0.9910377834562413</v>
       </c>
       <c r="D17">
-        <v>1.040002930157532</v>
+        <v>1.010196067119755</v>
       </c>
       <c r="E17">
-        <v>1.03688588432261</v>
+        <v>0.9993496984772486</v>
       </c>
       <c r="F17">
-        <v>1.045634131284459</v>
+        <v>0.9932472751628676</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039813807758907</v>
+        <v>1.038100662989861</v>
       </c>
       <c r="J17">
-        <v>1.044335509160019</v>
+        <v>1.018844777011577</v>
       </c>
       <c r="K17">
-        <v>1.043354879286512</v>
+        <v>1.024027653340528</v>
       </c>
       <c r="L17">
-        <v>1.040248640220612</v>
+        <v>1.013369139450258</v>
       </c>
       <c r="M17">
-        <v>1.048966736741853</v>
+        <v>1.007374749197917</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038432142631036</v>
+        <v>0.9924765243344349</v>
       </c>
       <c r="D18">
-        <v>1.040200093993695</v>
+        <v>1.011247412550147</v>
       </c>
       <c r="E18">
-        <v>1.037111392669023</v>
+        <v>1.000516863150489</v>
       </c>
       <c r="F18">
-        <v>1.045944160898591</v>
+        <v>0.9948443260683741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039894063910019</v>
+        <v>1.038619726172721</v>
       </c>
       <c r="J18">
-        <v>1.044518779724437</v>
+        <v>1.019826803864248</v>
       </c>
       <c r="K18">
-        <v>1.043509648587752</v>
+        <v>1.024874784729186</v>
       </c>
       <c r="L18">
-        <v>1.040431509515494</v>
+        <v>1.014326680823498</v>
       </c>
       <c r="M18">
-        <v>1.049234255096799</v>
+        <v>1.00875265057871</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038522053725856</v>
+        <v>0.9929646986691896</v>
       </c>
       <c r="D19">
-        <v>1.040267315996692</v>
+        <v>1.011604246345394</v>
       </c>
       <c r="E19">
-        <v>1.037188285796155</v>
+        <v>1.000913046760301</v>
       </c>
       <c r="F19">
-        <v>1.046049873051462</v>
+        <v>0.9953862582265232</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039921402406051</v>
+        <v>1.038795669777742</v>
       </c>
       <c r="J19">
-        <v>1.044581253550586</v>
+        <v>1.020159952787932</v>
       </c>
       <c r="K19">
-        <v>1.043562402314555</v>
+        <v>1.025162151573098</v>
       </c>
       <c r="L19">
-        <v>1.040493851602539</v>
+        <v>1.014651579500772</v>
       </c>
       <c r="M19">
-        <v>1.049325461544058</v>
+        <v>1.009220135044899</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03811992478869</v>
+        <v>0.9907719878904866</v>
       </c>
       <c r="D20">
-        <v>1.039966660608168</v>
+        <v>1.01000189069802</v>
       </c>
       <c r="E20">
-        <v>1.036844404039401</v>
+        <v>0.9991341499163192</v>
       </c>
       <c r="F20">
-        <v>1.045577103676292</v>
+        <v>0.9929522527894754</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039799032529106</v>
+        <v>1.038004685838867</v>
       </c>
       <c r="J20">
-        <v>1.044301789982169</v>
+        <v>1.018663327758571</v>
       </c>
       <c r="K20">
-        <v>1.043326401799737</v>
+        <v>1.023871119679685</v>
       </c>
       <c r="L20">
-        <v>1.040214997267453</v>
+        <v>1.013192241359421</v>
       </c>
       <c r="M20">
-        <v>1.048917523796446</v>
+        <v>1.007120170816975</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036812110250714</v>
+        <v>0.983469982133946</v>
       </c>
       <c r="D21">
-        <v>1.038988797616026</v>
+        <v>1.004673792845511</v>
       </c>
       <c r="E21">
-        <v>1.03572644878458</v>
+        <v>0.993221745348622</v>
       </c>
       <c r="F21">
-        <v>1.044040075162271</v>
+        <v>0.9848494056590118</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039399338010071</v>
+        <v>1.035358262004121</v>
       </c>
       <c r="J21">
-        <v>1.043392064238399</v>
+        <v>1.013675451128846</v>
       </c>
       <c r="K21">
-        <v>1.042557848020035</v>
+        <v>1.019567156517855</v>
       </c>
       <c r="L21">
-        <v>1.039307605255726</v>
+        <v>1.008332681878608</v>
       </c>
       <c r="M21">
-        <v>1.047590546074048</v>
+        <v>1.00012361017655</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035989475939893</v>
+        <v>0.9787372479461325</v>
       </c>
       <c r="D22">
-        <v>1.038373663153638</v>
+        <v>1.001227194549557</v>
       </c>
       <c r="E22">
-        <v>1.035023569300582</v>
+        <v>0.9893991495111466</v>
       </c>
       <c r="F22">
-        <v>1.043073660218562</v>
+        <v>0.9795993366568976</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039146606623775</v>
+        <v>1.033633774429949</v>
       </c>
       <c r="J22">
-        <v>1.042819185886845</v>
+        <v>1.010439907474731</v>
       </c>
       <c r="K22">
-        <v>1.042073631602187</v>
+        <v>1.016774379614099</v>
       </c>
       <c r="L22">
-        <v>1.038736465792379</v>
+        <v>1.005183577616362</v>
       </c>
       <c r="M22">
-        <v>1.04675564655407</v>
+        <v>0.9955860649123354</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036425604735591</v>
+        <v>0.9812601900654481</v>
       </c>
       <c r="D23">
-        <v>1.038699787523238</v>
+        <v>1.003063841919308</v>
       </c>
       <c r="E23">
-        <v>1.035396177154048</v>
+        <v>0.9914359839212986</v>
       </c>
       <c r="F23">
-        <v>1.043585978438556</v>
+        <v>0.9823979240208927</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039280719841309</v>
+        <v>1.034553916893074</v>
       </c>
       <c r="J23">
-        <v>1.043122965049096</v>
+        <v>1.01216495256745</v>
       </c>
       <c r="K23">
-        <v>1.042330418624533</v>
+        <v>1.01826343639198</v>
       </c>
       <c r="L23">
-        <v>1.039039297332617</v>
+        <v>1.006862231347804</v>
       </c>
       <c r="M23">
-        <v>1.047198298111682</v>
+        <v>0.9980052265483739</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038141844540425</v>
+        <v>0.9908921339283424</v>
       </c>
       <c r="D24">
-        <v>1.03998304936158</v>
+        <v>1.010089661168261</v>
       </c>
       <c r="E24">
-        <v>1.036863147183038</v>
+        <v>0.9992315801735884</v>
       </c>
       <c r="F24">
-        <v>1.045602871997485</v>
+        <v>0.9930856093109017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039805709307401</v>
+        <v>1.038048073066649</v>
       </c>
       <c r="J24">
-        <v>1.044317026531753</v>
+        <v>1.018745348274923</v>
       </c>
       <c r="K24">
-        <v>1.043339269889353</v>
+        <v>1.023941877943073</v>
       </c>
       <c r="L24">
-        <v>1.040230199281714</v>
+        <v>1.01327220357653</v>
       </c>
       <c r="M24">
-        <v>1.048939761198386</v>
+        <v>1.007235247279988</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040131951944616</v>
+        <v>1.001508133401428</v>
       </c>
       <c r="D25">
-        <v>1.041470865989526</v>
+        <v>1.017857511551896</v>
       </c>
       <c r="E25">
-        <v>1.038565621229036</v>
+        <v>1.007859475281223</v>
       </c>
       <c r="F25">
-        <v>1.047943368628282</v>
+        <v>1.004874500473759</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040408735193859</v>
+        <v>1.041859166942762</v>
       </c>
       <c r="J25">
-        <v>1.045698801643552</v>
+        <v>1.025984849219773</v>
       </c>
       <c r="K25">
-        <v>1.044505679357243</v>
+        <v>1.030184796075454</v>
       </c>
       <c r="L25">
-        <v>1.041609484241802</v>
+        <v>1.020336996007844</v>
       </c>
       <c r="M25">
-        <v>1.050958217493168</v>
+        <v>1.017397614461014</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
